--- a/data/level_accel_data.xlsx
+++ b/data/level_accel_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dangranger/Documents/Both/Aviation/References/Courses/NTPS/NTPS 2024/Modules/Capstone/python/sep/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCC9DF5-BA85-9241-8788-46C927F21EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE519BEB-EC7B-1745-B04D-431285579B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="17680" windowHeight="21580" xr2:uid="{4CEEB802-A928-0647-996D-D929CD9F3CD1}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="17680" windowHeight="21580" activeTab="1" xr2:uid="{4CEEB802-A928-0647-996D-D929CD9F3CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sortie 1 - 10k" sheetId="3" r:id="rId1"/>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -187,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270409FD-B354-4DA2-98DD-B4C59FFE11B7}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21:K21"/>
     </sheetView>
   </sheetViews>
@@ -1334,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692F98BA-F6FD-4D3B-B4D4-2F450AAEFC7A}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,7 +1841,7 @@
         <v>120</v>
       </c>
       <c r="B15" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" s="2">
         <f>$C$3-60</f>
@@ -1876,7 +1877,7 @@
         <v>130</v>
       </c>
       <c r="B16" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C16" s="2">
         <f>$C$3-20</f>
@@ -1948,7 +1949,7 @@
         <v>150</v>
       </c>
       <c r="B18" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C18" s="2">
         <f>$C$3-100</f>
@@ -1984,7 +1985,7 @@
         <v>160</v>
       </c>
       <c r="B19" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
@@ -2020,7 +2021,7 @@
         <v>170</v>
       </c>
       <c r="B20" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C20" s="2">
         <f>$C$3-80</f>
@@ -2111,7 +2112,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A23" sqref="A23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,19 +2812,87 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="7">
+        <v>180</v>
+      </c>
+      <c r="B21" s="7">
+        <v>351</v>
+      </c>
+      <c r="C21" s="7">
+        <v>14870</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8620</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="7">
+        <v>190</v>
+      </c>
+      <c r="B22" s="7">
+        <v>351</v>
+      </c>
+      <c r="C22" s="7">
+        <v>14870</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-19</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8620</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -2870,12 +2939,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bb219054-1937-46a3-8996-1cb86ca9dd57" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de9c467f-dfa9-4b7e-a2f0-cac27c0612d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3086,20 +3157,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bb219054-1937-46a3-8996-1cb86ca9dd57" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de9c467f-dfa9-4b7e-a2f0-cac27c0612d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F3A896-3EAC-4556-921B-C7EDE302D43B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868439E2-549E-4888-BF47-215731EE0419}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="bb219054-1937-46a3-8996-1cb86ca9dd57"/>
+    <ds:schemaRef ds:uri="de9c467f-dfa9-4b7e-a2f0-cac27c0612d6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3124,18 +3202,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868439E2-549E-4888-BF47-215731EE0419}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F3A896-3EAC-4556-921B-C7EDE302D43B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bb219054-1937-46a3-8996-1cb86ca9dd57"/>
-    <ds:schemaRef ds:uri="de9c467f-dfa9-4b7e-a2f0-cac27c0612d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>